--- a/docs/timesheet_simon_broekaert.xlsx
+++ b/docs/timesheet_simon_broekaert.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -58,6 +58,66 @@
   </si>
   <si>
     <t>voorblad + sjabloon ontworpen</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>eerste tabel ideeën opscrhijven</t>
+  </si>
+  <si>
+    <t>Style tiles</t>
+  </si>
+  <si>
+    <t>style tile aangemaakt</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Home page aangemaakt</t>
+  </si>
+  <si>
+    <t>Provincie page, detail en login page</t>
+  </si>
+  <si>
+    <t>Persona sheets</t>
+  </si>
+  <si>
+    <t>Persona sheets helemaal afgewerkt</t>
+  </si>
+  <si>
+    <t>Idea board</t>
+  </si>
+  <si>
+    <t>idea board op pinterest aangemaakt</t>
+  </si>
+  <si>
+    <t>groep 13</t>
+  </si>
+  <si>
+    <t>Moodboard</t>
+  </si>
+  <si>
+    <t>moad board gemaakt</t>
+  </si>
+  <si>
+    <t>Sitemap</t>
+  </si>
+  <si>
+    <t>Sitemap aangemaakt</t>
+  </si>
+  <si>
+    <t>bestaande pagina's verbeteren</t>
+  </si>
+  <si>
+    <t>Laatste pagina's aangemaakt</t>
+  </si>
+  <si>
+    <t>Visual designs</t>
+  </si>
+  <si>
+    <t>Home pagina visual design</t>
   </si>
 </sst>
 </file>
@@ -503,18 +563,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -538,7 +598,7 @@
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>42657</v>
+        <v>42656</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -547,16 +607,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="9">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(D:D)</f>
-        <v>4.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>42657</v>
+        <v>42656</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -565,12 +625,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>42657</v>
+        <v>42656</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -579,21 +639,178 @@
         <v>12</v>
       </c>
       <c r="D4" s="9">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>42656</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42657</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42657</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>42658</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.15</v>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42659</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42660</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42661</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42661</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42662</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42665</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42666</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42671</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_simon_broekaert.xlsx
+++ b/docs/timesheet_simon_broekaert.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>Datum</t>
   </si>
@@ -60,18 +60,18 @@
     <t>voorblad + sjabloon ontworpen</t>
   </si>
   <si>
+    <t>Style tiles</t>
+  </si>
+  <si>
+    <t>style tile aangemaakt</t>
+  </si>
+  <si>
     <t>Database</t>
   </si>
   <si>
     <t>eerste tabel ideeën opscrhijven</t>
   </si>
   <si>
-    <t>Style tiles</t>
-  </si>
-  <si>
-    <t>style tile aangemaakt</t>
-  </si>
-  <si>
     <t>Wireframes</t>
   </si>
   <si>
@@ -93,9 +93,6 @@
     <t>idea board op pinterest aangemaakt</t>
   </si>
   <si>
-    <t>groep 13</t>
-  </si>
-  <si>
     <t>Moodboard</t>
   </si>
   <si>
@@ -118,6 +115,141 @@
   </si>
   <si>
     <t>Home pagina visual design</t>
+  </si>
+  <si>
+    <t>omgeving opzetten</t>
+  </si>
+  <si>
+    <t>database aanmaken</t>
+  </si>
+  <si>
+    <t>database verbeteren</t>
+  </si>
+  <si>
+    <t>models maken</t>
+  </si>
+  <si>
+    <t>BnbGo,models aanmaken</t>
+  </si>
+  <si>
+    <t>BnbGo,db aanmaken</t>
+  </si>
+  <si>
+    <t>seeding toevoegen</t>
+  </si>
+  <si>
+    <t>BnbGo,api aanmaken</t>
+  </si>
+  <si>
+    <t>models aanpassen</t>
+  </si>
+  <si>
+    <t>seeding aanpassen</t>
+  </si>
+  <si>
+    <t>BnbGo,www aanmaken</t>
+  </si>
+  <si>
+    <t>backoffice home view</t>
+  </si>
+  <si>
+    <t>backoffice countries, region en city view</t>
+  </si>
+  <si>
+    <t>backoffice sidebar aanmaken</t>
+  </si>
+  <si>
+    <t>backoffice header</t>
+  </si>
+  <si>
+    <t>backoffice layout</t>
+  </si>
+  <si>
+    <t>backoffice style in css</t>
+  </si>
+  <si>
+    <t>sass files aanmaken voor front en backoffice</t>
+  </si>
+  <si>
+    <t>sass installeren en toepassen</t>
+  </si>
+  <si>
+    <t>Countries delete en soft delete</t>
+  </si>
+  <si>
+    <t>edit, delete en create page stylen</t>
+  </si>
+  <si>
+    <t>search toevoegen aan countries</t>
+  </si>
+  <si>
+    <t>Countries create en edit</t>
+  </si>
+  <si>
+    <t>Backoffice</t>
+  </si>
+  <si>
+    <t>Users, Reservations en Rooms CRUD</t>
+  </si>
+  <si>
+    <t>Users edit, show en delete uitzoeken</t>
+  </si>
+  <si>
+    <t>Backoffice coding finished</t>
+  </si>
+  <si>
+    <t>Backoffice styling finished</t>
+  </si>
+  <si>
+    <t>seeding optimized + countries from json</t>
+  </si>
+  <si>
+    <t>images + comments + ratings</t>
+  </si>
+  <si>
+    <t>Frontoffice</t>
+  </si>
+  <si>
+    <t>BnbGo,AJS opzetten</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Profile page</t>
+  </si>
+  <si>
+    <t>Profile page + Reservation page</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>Country page afwerken</t>
+  </si>
+  <si>
+    <t>Region page afwerken</t>
+  </si>
+  <si>
+    <t>Country page</t>
+  </si>
+  <si>
+    <t>Region page</t>
+  </si>
+  <si>
+    <t>City page</t>
+  </si>
+  <si>
+    <t>API aanpassen</t>
+  </si>
+  <si>
+    <t>Backoffice kleine fixes</t>
+  </si>
+  <si>
+    <t>City page aanpassing</t>
   </si>
 </sst>
 </file>
@@ -563,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +743,7 @@
       </c>
       <c r="E2" s="10">
         <f>SUM(D:D)</f>
-        <v>22</v>
+        <v>120.3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,10 +779,10 @@
         <v>42656</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9">
         <v>0.75</v>
@@ -675,10 +807,10 @@
         <v>42657</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9">
         <v>1.5</v>
@@ -739,19 +871,16 @@
       <c r="D11" s="9">
         <v>0.75</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>42661</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="9">
         <v>0.75</v>
@@ -762,10 +891,10 @@
         <v>42662</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="9">
         <v>0.5</v>
@@ -779,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="9">
         <v>1.75</v>
@@ -793,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="9">
         <v>3.25</v>
@@ -804,13 +933,657 @@
         <v>42671</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="9">
         <v>2.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42673</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42676</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42676</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42678</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42680</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42684</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>42684</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>42687</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42688</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42688</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>42694</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>42695</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>42695</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42696</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>42696</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>42700</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>42700</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>42701</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>42701</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42702</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="9">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>42707</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>42707</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>42709</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="9">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>42710</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42710</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42711</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42712</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="9">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>42713</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42713</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>42716</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>42719</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="9">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>42722</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>42723</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>42724</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>42725</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>42725</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>42726</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="9">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>42726</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="9">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>42727</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>42729</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>42729</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
